--- a/A2/cost_estimate_DL.xlsx
+++ b/A2/cost_estimate_DL.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14295" yWindow="7740" windowWidth="14610" windowHeight="7845" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2340" yWindow="1530" windowWidth="21345" windowHeight="14670" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -446,7 +446,7 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v/>
+        <v>952535558.3503456</v>
       </c>
     </row>
     <row r="46">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v/>
+        <v>369817.8898797751</v>
       </c>
     </row>
     <row r="48">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v/>
+        <v>496377.6927108178</v>
       </c>
     </row>
     <row r="49">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v/>
+        <v>1586639.627116211</v>
       </c>
     </row>
     <row r="50">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v/>
+        <v>33931.08674541409</v>
       </c>
     </row>
     <row r="51">
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v/>
+        <v>481016.453647761</v>
       </c>
     </row>
     <row r="52">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v/>
+        <v>154697.3636438305</v>
       </c>
     </row>
     <row r="53">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v/>
+        <v>52638.41409067671</v>
       </c>
     </row>
     <row r="54">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v/>
+        <v>3642420.87821235</v>
       </c>
     </row>
     <row r="61">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v/>
+        <v>364242.0878212351</v>
       </c>
     </row>
     <row r="62">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v/>
+        <v>4006662.966033585</v>
       </c>
     </row>
     <row r="64">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v/>
+        <v>3676198.600440319</v>
       </c>
     </row>
     <row r="66">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v/>
+        <v>11124.94723935031</v>
       </c>
     </row>
     <row r="67">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v/>
+        <v>3687323.547679669</v>
       </c>
     </row>
   </sheetData>

--- a/A2/cost_estimate_DL.xlsx
+++ b/A2/cost_estimate_DL.xlsx
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>952535558.3503456</v>
+        <v/>
       </c>
     </row>
     <row r="46">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>369817.8898797751</v>
+        <v/>
       </c>
     </row>
     <row r="48">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>496377.6927108178</v>
+        <v/>
       </c>
     </row>
     <row r="49">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1586639.627116211</v>
+        <v/>
       </c>
     </row>
     <row r="50">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>33931.08674541409</v>
+        <v/>
       </c>
     </row>
     <row r="51">
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>481016.453647761</v>
+        <v/>
       </c>
     </row>
     <row r="52">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>154697.3636438305</v>
+        <v/>
       </c>
     </row>
     <row r="53">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>52638.41409067671</v>
+        <v/>
       </c>
     </row>
     <row r="54">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3642420.87821235</v>
+        <v/>
       </c>
     </row>
     <row r="61">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>364242.0878212351</v>
+        <v/>
       </c>
     </row>
     <row r="62">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4006662.966033585</v>
+        <v/>
       </c>
     </row>
     <row r="64">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3676198.600440319</v>
+        <v/>
       </c>
     </row>
     <row r="66">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>11124.94723935031</v>
+        <v/>
       </c>
     </row>
     <row r="67">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3687323.547679669</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/A2/cost_estimate_DL.xlsx
+++ b/A2/cost_estimate_DL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchee\OneDrive\Documents\College Classes\EAE 130\SunGoldSkies\A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141E7887-33AD-468D-9FB3-EB5630777116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6084015E-EE43-4FF3-B215-D60433A3A04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="810" windowWidth="19815" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11115" yWindow="540" windowWidth="17175" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -590,12 +590,12 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1040,6 +1040,9 @@
       <c r="A44" t="s">
         <v>46</v>
       </c>
+      <c r="B44">
+        <v>369919534.13328803</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1050,36 +1053,57 @@
       <c r="A47" t="s">
         <v>38</v>
       </c>
+      <c r="B47">
+        <v>345675.67858112737</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>39</v>
       </c>
+      <c r="B48">
+        <v>382203.89266119187</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>40</v>
       </c>
+      <c r="B49">
+        <v>1655595.3067484079</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>41</v>
       </c>
+      <c r="B50">
+        <v>30414.403184299739</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>42</v>
       </c>
+      <c r="B51">
+        <v>856975.03201219952</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
+      <c r="B52">
+        <v>181598.11020896601</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
+      <c r="B53">
+        <v>61216.909912467352</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -1133,35 +1157,53 @@
       <c r="A60" t="s">
         <v>54</v>
       </c>
+      <c r="B60">
+        <v>3228944.124495463</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>55</v>
       </c>
+      <c r="B61">
+        <v>322894.41244954627</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>56</v>
       </c>
+      <c r="B62">
+        <v>3551838.5369450091</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>3370826.0436951229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>10768.50088946612</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>60</v>
+      </c>
+      <c r="B67">
+        <v>3381594.5445845891</v>
       </c>
     </row>
   </sheetData>
